--- a/SPPSApi/Doc/Template/FS0605.xlsx
+++ b/SPPSApi/Doc/Template/FS0605.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>供应商代码</t>
   </si>
@@ -27,21 +27,47 @@
     <t>生产能力&amp;纳期确认</t>
   </si>
   <si>
-    <t>联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
     <t>×</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>◯</t>
+  </si>
+  <si>
+    <t>联系人1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -405,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -417,11 +443,17 @@
     <col min="2" max="2" width="8.7265625" style="3"/>
     <col min="3" max="3" width="18.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" style="3"/>
-    <col min="5" max="5" width="21.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25.36328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.90625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="3"/>
+    <col min="8" max="8" width="14.1796875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="21.54296875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="3"/>
+    <col min="11" max="11" width="14.26953125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="18.36328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -432,13 +464,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -471,12 +521,12 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0605.xlsx
+++ b/SPPSApi/Doc/Template/FS0605.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>供应商代码</t>
   </si>
@@ -24,16 +24,6 @@
     <t>工区</t>
   </si>
   <si>
-    <t>生产能力&amp;纳期确认</t>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>◯</t>
-  </si>
-  <si>
     <t>联系人1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,6 +57,14 @@
   </si>
   <si>
     <t>邮箱3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,34 +459,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -514,24 +512,23 @@
   <dimension ref="B1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
